--- a/test/config.xlsx
+++ b/test/config.xlsx
@@ -15,7 +15,7 @@
     <sheet name="测s" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测s!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测s!$C$1:$D$10</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,14 @@
     <rPh sb="2" eb="3">
       <t>ming zi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fasdfas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfasf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,64 +384,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
